--- a/forwardprimer-v3_26.xlsx
+++ b/forwardprimer-v3_26.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="60" windowWidth="19176" windowHeight="15528"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="45096" windowHeight="22872"/>
   </bookViews>
   <sheets>
     <sheet name="forwardprimer-v3_26" sheetId="1" r:id="rId1"/>
@@ -28,865 +28,865 @@
     <t>A1</t>
   </si>
   <si>
-    <t>F2401-AAGGTTGACG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAAGGTTGACGTCGTCGGCAGCGTC</t>
+    <t>F2401-ATCATCTCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCATCTCTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A2</t>
   </si>
   <si>
-    <t>F2402-ACGTGATCCA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTGATCCATCGTCGGCAGCGTC</t>
+    <t>F2402-TAGACGTAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGACGTAGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A3</t>
   </si>
   <si>
-    <t>F2403-TTCAGCACTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCAGCACTGTCGTCGGCAGCGTC</t>
+    <t>F2403-AGACATCCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACATCCAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A4</t>
   </si>
   <si>
-    <t>F2404-TAGCACATGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCACATGATCGTCGGCAGCGTC</t>
+    <t>F2404-TCTTCACATG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTCACATGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A5</t>
   </si>
   <si>
-    <t>F2405-AGACTTGGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGACTTGGATTCGTCGGCAGCGTC</t>
+    <t>F2405-TGGTGTCAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGGTGTCAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A6</t>
   </si>
   <si>
-    <t>F2406-ACACACCAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACACCAGTTCGTCGGCAGCGTC</t>
+    <t>F2406-GCTTGCTTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTTGCTTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A7</t>
   </si>
   <si>
-    <t>F2407-TACAGCTAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACAGCTAGGTCGTCGGCAGCGTC</t>
+    <t>F2407-GTCTCTCGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTCTCGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A8</t>
   </si>
   <si>
-    <t>F2408-ATCTAGGAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCTAGGAGATCGTCGGCAGCGTC</t>
+    <t>F2408-GAAGCTTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGCTTCAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A9</t>
   </si>
   <si>
-    <t>F2409-ATCGAGAACA</t>
+    <t>F2409-AGCAACTCAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCAACTCAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>F2410-ATCGAGAACA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACATCGAGAACATCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>A10</t>
-  </si>
-  <si>
-    <t>F2410-ACAAGAGCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAAGAGCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>A11</t>
   </si>
   <si>
-    <t>F2411-ATCGTCGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCGTCGACATCGTCGGCAGCGTC</t>
+    <t>F2411-GACAGGTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACAGGTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>A12</t>
   </si>
   <si>
-    <t>F2412-ACTTGACCTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTTGACCTGTCGTCGGCAGCGTC</t>
+    <t>F2412-ACGACTTCCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGACTTCCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B1</t>
   </si>
   <si>
-    <t>F2413-CTCATCTTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTCATCTTGTTCGTCGGCAGCGTC</t>
+    <t>F2413-GAACAGAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAACAGAACGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B2</t>
   </si>
   <si>
-    <t>F2414-GATGCAGATG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGCAGATGTCGTCGGCAGCGTC</t>
+    <t>F2414-TGTGAGTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTGAGTGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B3</t>
   </si>
   <si>
-    <t>F2415-GTAGTGAACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGTGAACATCGTCGGCAGCGTC</t>
+    <t>F2415-CTGTAGACCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGTAGACCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B4</t>
   </si>
   <si>
-    <t>F2416-GTCACCTAGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCACCTAGTTCGTCGGCAGCGTC</t>
+    <t>F2416-GAGAGACGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGACGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B5</t>
   </si>
   <si>
-    <t>F2417-ATGTCTGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTCTGAAGTCGTCGGCAGCGTC</t>
+    <t>F2417-AACACACAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACACAAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B6</t>
   </si>
   <si>
-    <t>F2418-TTCTGAGTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCTGAGTACTCGTCGGCAGCGTC</t>
+    <t>F2418-GACCTCTTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACCTCTTCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B7</t>
   </si>
   <si>
-    <t>F2419-TCTCTCCACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTCTCCACTTCGTCGGCAGCGTC</t>
+    <t>F2419-GTGTCGTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTCGTAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B8</t>
   </si>
   <si>
-    <t>F2420-TAGGAGTCGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGGAGTCGTTCGTCGGCAGCGTC</t>
+    <t>F2420-GTTCTAGGTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCTAGGTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B9</t>
   </si>
   <si>
-    <t>F2421-GCTCCTTGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGCTCCTTGTATCGTCGGCAGCGTC</t>
+    <t>F2421-TCTCGTTGCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCGTTGCATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B10</t>
   </si>
   <si>
-    <t>F2422-TAGCTAGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTAGAAGTCGTCGGCAGCGTC</t>
+    <t>F2422-ACTAGCTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTAGCTGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B11</t>
   </si>
   <si>
-    <t>F2423-ATGATCGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGATCGAAGTCGTCGGCAGCGTC</t>
+    <t>F2423-GCTTCATGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGCTTCATGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>B12</t>
   </si>
   <si>
-    <t>F2424-AGTCCTTGGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTCCTTGGATCGTCGGCAGCGTC</t>
+    <t>F2424-AGACGACCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGACGACCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C1</t>
   </si>
   <si>
-    <t>F2425-TGAACGTTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAACGTTCTTCGTCGGCAGCGTC</t>
+    <t>F2425-TCAGCATGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGCATGAATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C2</t>
   </si>
   <si>
-    <t>F2426-CACTAGCTAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACTAGCTACTCGTCGGCAGCGTC</t>
+    <t>F2426-CAAGTACGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTACGAGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C3</t>
   </si>
   <si>
-    <t>F2427-ACCTACAAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACCTACAAGCTCGTCGGCAGCGTC</t>
+    <t>F2427-AAGACACGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAAGACACGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C4</t>
   </si>
   <si>
-    <t>F2428-GTACTTGGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTACTTGGAGTCGTCGGCAGCGTC</t>
+    <t>F2428-AGCTGTTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGCTGTTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C5</t>
   </si>
   <si>
-    <t>F2429-CTACGTCATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTACGTCATCTCGTCGGCAGCGTC</t>
+    <t>F2429-AGGTAGAGGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTAGAGGTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C6</t>
   </si>
   <si>
-    <t>F2430-ATGAGAAGCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGAGAAGCTTCGTCGGCAGCGTC</t>
+    <t>F2430-CAAGCTACTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGCTACTCTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C7</t>
   </si>
   <si>
-    <t>F2431-ACTCGTTGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCGTTGACTCGTCGGCAGCGTC</t>
+    <t>F2431-CTGACTTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTGACTTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>C8</t>
   </si>
   <si>
-    <t>F2432-AGCATGTGGA</t>
+    <t>F2432-ACTGAAGAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTGAAGAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>F2433-ATCTGAGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCTGAGTGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>F2434-GTACAGTCAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACAGTCAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>F2435-TCTCATGTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTCATGTCGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>F2436-TAGCTTCCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGCTTCCTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>F2437-CAAGTCAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGTCAGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>F2438-TCACCTAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACCTAGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>F2439-CCATCCAGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCATCCAGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D4</t>
+  </si>
+  <si>
+    <t>F2440-CATGTGTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCATGTGTCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D5</t>
+  </si>
+  <si>
+    <t>F2441-TGTAGCACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTAGCACTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D6</t>
+  </si>
+  <si>
+    <t>F2442-GACGAAGTCA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACGAAGTCATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D7</t>
+  </si>
+  <si>
+    <t>F2443-ATCGTGTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGTGTAGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D8</t>
+  </si>
+  <si>
+    <t>F2444-TGACCAAGCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACCAAGCTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D9</t>
+  </si>
+  <si>
+    <t>F2445-GTCTCAAGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTCTCAAGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D10</t>
+  </si>
+  <si>
+    <t>F2446-ACAGAGCTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACAGAGCTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D11</t>
+  </si>
+  <si>
+    <t>F2447-GTTCGTTGAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTTCGTTGAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>D12</t>
+  </si>
+  <si>
+    <t>F2448-TAGGAGCACT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGGAGCACTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>F2449-GTACTGAAGC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACTGAAGCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>F2450-GATGATGGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGATGGATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>F2451-CGTCAACAAG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTCAACAAGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>F2452-CGTGATCGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTGATCGTATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>F2453-ACGAGCTGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGAGCTGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>F2454-TGTTCTGCTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTTCTGCTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E7</t>
+  </si>
+  <si>
+    <t>F2455-GGTACATCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGGTACATCACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E8</t>
+  </si>
+  <si>
+    <t>F2456-CACATCTCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCACATCTCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E9</t>
+  </si>
+  <si>
+    <t>F2457-CGACTGTTGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGACTGTTGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E10</t>
+  </si>
+  <si>
+    <t>F2458-GAAGACCAAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAAGACCAACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E11</t>
+  </si>
+  <si>
+    <t>F2459-ACGTTGTGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGTTGTGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>E12</t>
+  </si>
+  <si>
+    <t>F2460-GATCAAGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCAAGAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F1</t>
+  </si>
+  <si>
+    <t>F2461-TCACGACCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACGACCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F2</t>
+  </si>
+  <si>
+    <t>F2462-TACGTGAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACGTGAGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F3</t>
+  </si>
+  <si>
+    <t>F2463-AACGTTGGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACGTTGGTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F4</t>
+  </si>
+  <si>
+    <t>F2464-CTCTACTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTACTGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F5</t>
+  </si>
+  <si>
+    <t>F2465-ACTAGGAACG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACTAGGAACGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F6</t>
+  </si>
+  <si>
+    <t>F2466-CGATCGAGAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGATCGAGAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F7</t>
+  </si>
+  <si>
+    <t>F2467-GTACCACTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTACCACTACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F8</t>
+  </si>
+  <si>
+    <t>F2468-GATCTCTCAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATCTCTCACTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F9</t>
+  </si>
+  <si>
+    <t>F2469-AGGTCTAGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGTCTAGGATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F2470-ATCGAGGTTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACATCGAGGTTGTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>F2471-TGTCACACAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGTCACACATTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>F12</t>
+  </si>
+  <si>
+    <t>F2472-CAAGCTGAGT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCAAGCTGAGTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G1</t>
+  </si>
+  <si>
+    <t>F2473-TCAGTAGCTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCAGTAGCTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G2</t>
+  </si>
+  <si>
+    <t>F2474-CCTTGTCTTC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCCTTGTCTTCTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G3</t>
+  </si>
+  <si>
+    <t>F2475-CTAGCAACAA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTAGCAACAATCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G4</t>
+  </si>
+  <si>
+    <t>F2476-AGTCAGAGTT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGTCAGAGTTTCGTCGGCAGCGTC</t>
+  </si>
+  <si>
+    <t>G5</t>
+  </si>
+  <si>
+    <t>F2477-AGCATGTGGA</t>
   </si>
   <si>
     <t>AATGATACGGCGACCACCGAGATCTACACAGCATGTGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
-    <t>C9</t>
-  </si>
-  <si>
-    <t>F2433-AGGACTCAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGACTCAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C10</t>
-  </si>
-  <si>
-    <t>F2434-TACCATGAAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCATGAACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C11</t>
-  </si>
-  <si>
-    <t>F2435-TGTCTCAACC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTCTCAACCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>C12</t>
-  </si>
-  <si>
-    <t>F2436-ACGTCTGGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACGTCTGGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>F2437-TGAACAGAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAACAGAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D2</t>
-  </si>
-  <si>
-    <t>F2438-TGAGCTAGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAGCTAGTCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D3</t>
-  </si>
-  <si>
-    <t>F2439-CAACATCCAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAACATCCAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D4</t>
-  </si>
-  <si>
-    <t>F2440-GAGCACATCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGCACATCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D5</t>
-  </si>
-  <si>
-    <t>F2441-GACTTGACCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGACTTGACCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D6</t>
-  </si>
-  <si>
-    <t>F2442-TCTGTAGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTAGTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D7</t>
-  </si>
-  <si>
-    <t>F2443-AACAACACAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACAACACAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D8</t>
-  </si>
-  <si>
-    <t>F2444-AGTTGAGCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGTTGAGCACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D9</t>
-  </si>
-  <si>
-    <t>F2445-TTGGATCAGG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGATCAGGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D10</t>
-  </si>
-  <si>
-    <t>F2446-AACTACGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACTACGTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D11</t>
-  </si>
-  <si>
-    <t>F2447-TGAAGAGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGAAGAGCAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>D12</t>
-  </si>
-  <si>
-    <t>F2448-CTAGACAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTAGACAGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E1</t>
-  </si>
-  <si>
-    <t>F2449-TGTACCTCCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGTACCTCCTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E2</t>
-  </si>
-  <si>
-    <t>F2450-GAGAACGTTG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAGAACGTTGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E3</t>
-  </si>
-  <si>
-    <t>F2451-AGATGCATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGATGCATGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E4</t>
-  </si>
-  <si>
-    <t>F2452-TAGTCGAACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCGAACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E5</t>
-  </si>
-  <si>
-    <t>F2453-ACTCAACACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTCAACACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E6</t>
-  </si>
-  <si>
-    <t>F2454-TAGACAGAGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTAGACAGAGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E7</t>
-  </si>
-  <si>
-    <t>F2455-ACAGACGTGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACAGACGTGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E8</t>
-  </si>
-  <si>
-    <t>F2456-GGACTCATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGACTCATGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E9</t>
-  </si>
-  <si>
-    <t>F2457-ATCATCGTGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATCATCGTGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E10</t>
-  </si>
-  <si>
-    <t>F2458-CGAGGTAGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGAGGTAGATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E11</t>
-  </si>
-  <si>
-    <t>F2459-CATCACCTGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCACCTGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>E12</t>
-  </si>
-  <si>
-    <t>F2460-AGGTGAAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGGTGAAGAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F1</t>
-  </si>
-  <si>
-    <t>F2461-TGGTGCATGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTGCATGTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F2</t>
-  </si>
-  <si>
-    <t>F2462-TGACGTGATC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACGTGATCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F3</t>
-  </si>
-  <si>
-    <t>F2463-CAGTCTGCAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAGTCTGCATTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F4</t>
-  </si>
-  <si>
-    <t>F2464-TACCACAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCACAGACTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F5</t>
-  </si>
-  <si>
-    <t>F2465-ACACAACTCC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACACAACTCCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F6</t>
-  </si>
-  <si>
-    <t>F2466-TGACACAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGACACAGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F7</t>
-  </si>
-  <si>
-    <t>F2467-TGGTAGATGC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTGGTAGATGCTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F8</t>
-  </si>
-  <si>
-    <t>F2468-GGAACAGACT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGGAACAGACTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F9</t>
-  </si>
-  <si>
-    <t>F2469-CAAGAAGGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCAAGAAGGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F2470-TACCTTCACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTACCTTCACATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F2471-AGAGCTAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAGAGCTAGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>F12</t>
-  </si>
-  <si>
-    <t>F2472-ACATCGTAGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACATCGTAGATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G1</t>
-  </si>
-  <si>
-    <t>F2473-TCCATGTTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCATGTTCGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G2</t>
-  </si>
-  <si>
-    <t>F2474-CGATCTAGTT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGATCTAGTTTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G3</t>
-  </si>
-  <si>
-    <t>F2475-GTCGTCAGTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCGTCAGTATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G4</t>
-  </si>
-  <si>
-    <t>F2476-ACTGGACAAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACACTGGACAAGTCGTCGGCAGCGTC</t>
-  </si>
-  <si>
-    <t>G5</t>
-  </si>
-  <si>
-    <t>F2477-GATGAGTGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGATGAGTGAATCGTCGGCAGCGTC</t>
-  </si>
-  <si>
     <t>G6</t>
   </si>
   <si>
-    <t>F2478-GAAGACAGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAAGACAGAGTCGTCGGCAGCGTC</t>
+    <t>F2478-ACGATCTGGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACACGATCTGGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G7</t>
   </si>
   <si>
-    <t>F2479-TCCAACTGAG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCCAACTGAGTCGTCGGCAGCGTC</t>
+    <t>F2479-TGACGTACCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGACGTACCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G8</t>
   </si>
   <si>
-    <t>F2480-GTTGTTGCAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTTGTTGCACTCGTCGGCAGCGTC</t>
+    <t>F2480-AACACTCCAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACTCCATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G9</t>
   </si>
   <si>
-    <t>F2481-GAACCTGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGAACCTGCAATCGTCGGCAGCGTC</t>
+    <t>F2481-TGATCCTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGATCCTTCGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G10</t>
   </si>
   <si>
-    <t>F2482-AACGAACGTC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACAACGAACGTCTCGTCGGCAGCGTC</t>
+    <t>F2482-TGAGTACTAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGAGTACTACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G11</t>
   </si>
   <si>
-    <t>F2483-ATGTCTAGAC</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACATGTCTAGACTCGTCGGCAGCGTC</t>
+    <t>F2483-GATGGTTGTG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGATGGTTGTGTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>G12</t>
   </si>
   <si>
-    <t>F2484-CTGGATGGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGGATGGAATCGTCGGCAGCGTC</t>
+    <t>F2484-CTCTTGAACA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCTCTTGAACATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H1</t>
   </si>
   <si>
-    <t>F2485-CATCGTCCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCATCGTCCAATCGTCGGCAGCGTC</t>
+    <t>F2485-CGTTGGTCTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACCGTTGGTCTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H2</t>
   </si>
   <si>
-    <t>F2486-TCTGTACTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTCTGTACTCTTCGTCGGCAGCGTC</t>
+    <t>F2486-TAGTCTTCGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTAGTCTTCGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H3</t>
   </si>
   <si>
-    <t>F2487-CCTCTTGACA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCCTCTTGACATCGTCGGCAGCGTC</t>
+    <t>F2487-TGCTAGGTCT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTGCTAGGTCTTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H4</t>
   </si>
   <si>
-    <t>F2488-GTAGCACTCT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTAGCACTCTTCGTCGGCAGCGTC</t>
+    <t>F2488-TACCAGCAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTACCAGCAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H5</t>
   </si>
   <si>
-    <t>F2489-TTGGTAGCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGGTAGCAATCGTCGGCAGCGTC</t>
+    <t>F2489-AACACAGTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAACACAGTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H6</t>
   </si>
   <si>
-    <t>F2490-GTCCTAGCTA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACGTCCTAGCTATCGTCGGCAGCGTC</t>
+    <t>F2490-GACTCTTGAT</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGACTCTTGATTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H7</t>
   </si>
   <si>
-    <t>F2491-CTGTTCACGA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCTGTTCACGATCGTCGGCAGCGTC</t>
+    <t>F2491-GAGAGACTGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGAGAGACTGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H8</t>
   </si>
   <si>
-    <t>F2492-CACACTTGGT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCACACTTGGTTCGTCGGCAGCGTC</t>
+    <t>F2492-TCACCACGTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCACCACGTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H9</t>
   </si>
   <si>
-    <t>F2493-TTCGTAGTCG</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTCGTAGTCGTCGTCGGCAGCGTC</t>
+    <t>F2493-GTGTGTTGAC</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACGTGTGTTGACTCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H10</t>
   </si>
   <si>
-    <t>F2494-CGTGTGAGAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTGTGAGAATCGTCGGCAGCGTC</t>
+    <t>F2494-AGGACGTAGA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACAGGACGTAGATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H11</t>
   </si>
   <si>
-    <t>F2495-TTGTCCTGAT</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACTTGTCCTGATTCGTCGGCAGCGTC</t>
+    <t>F2495-TCCAGAACTA</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCCAGAACTATCGTCGGCAGCGTC</t>
   </si>
   <si>
     <t>H12</t>
   </si>
   <si>
-    <t>F2496-CGTACCTCAA</t>
-  </si>
-  <si>
-    <t>AATGATACGGCGACCACCGAGATCTACACCGTACCTCAATCGTCGGCAGCGTC</t>
+    <t>F2496-TCTTGGTTCG</t>
+  </si>
+  <si>
+    <t>AATGATACGGCGACCACCGAGATCTACACTCTTGGTTCGTCGTCGGCAGCGTC</t>
   </si>
 </sst>
 </file>
